--- a/input_data/scenarios.xlsx
+++ b/input_data/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan-Steffen Fischer\Desktop\test_cea\glen_cea\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan-Steffen Fischer\Desktop\LEAT_to_update\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C225219-C9FA-4791-892D-A206CE620F1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CEA86A-3A58-46E0-B606-8E9AB38AA7B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>sheet: scenarios</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>2023-01-19T15:43:10</t>
+  </si>
+  <si>
+    <t>CH4_Test</t>
+  </si>
+  <si>
+    <t>H2_Test</t>
   </si>
 </sst>
 </file>
@@ -737,11 +743,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,7 +863,6 @@
         <v>35</v>
       </c>
       <c r="F3" s="1">
-        <f>3408.1+3572</f>
         <v>6980.1</v>
       </c>
       <c r="G3" s="1">
@@ -896,7 +901,6 @@
         <v>44</v>
       </c>
       <c r="F4" s="1">
-        <f>56*300</f>
         <v>16800</v>
       </c>
       <c r="G4" s="1">
@@ -957,6 +961,82 @@
         <v>0.7</v>
       </c>
       <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4700</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4900</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>11000</v>
+      </c>
+      <c r="K6" s="1">
+        <v>14000</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4700</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4900</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>11000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>14000</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
